--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3724.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3724.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3724</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Joseph L Denly</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Leg Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3005</t>
+          <t>3005</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3015</t>
+          <t>3015</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3017</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3018</t>
+          <t>3018</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3019</t>
+          <t>3019</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3023</t>
+          <t>3023</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3027</t>
+          <t>3027</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +932,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3029</t>
+          <t>3029</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +984,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3032</t>
+          <t>3032</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1036,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,7 +1132,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1184,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1172,7 +1236,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1284,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4405</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1272,7 +1336,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4408</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1311,7 +1375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1333,7 +1397,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1370,7 +1434,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1407,7 +1471,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1444,7 +1508,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1481,7 +1545,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3724.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3724.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1076,7 +1077,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1124,7 +1124,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>14/05/2019</t>
@@ -1276,7 +1275,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -1289,7 +1287,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1577,4 +1575,423 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3005</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>33.00%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3015</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5.00%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3017</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15.05%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3018</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3019</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.94%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3027</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3029</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3.42%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3032</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14.01%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4284</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4.02%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4287</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4.99%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4401</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4408</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3724.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3724.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,6 +1076,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -1124,6 +1124,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>14/05/2019</t>
@@ -1275,6 +1276,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -1575,423 +1577,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3005</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>33.00%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3015</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5.00%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3017</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>15.05%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3018</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3019</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>29.94%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3023</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3027</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3029</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.42%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3032</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>14.01%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4284</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.02%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4287</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4294</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4297</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.99%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4401</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4405</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4408</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>